--- a/static/documentos/reporte_15.xlsx
+++ b/static/documentos/reporte_15.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pytho\PycharmProjects\sion\static\documentos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diego.fonseca\PycharmProjects\uni2data\static\documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3A0D660-A9DF-416D-94FC-9FBB8597E884}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8A14AA3-4454-4A37-963C-023091B9F82C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="REPORTE" sheetId="1" r:id="rId1"/>
@@ -770,9 +770,6 @@
     </r>
   </si>
   <si>
-    <t>Código SION:</t>
-  </si>
-  <si>
     <t>Coordinador administrativo</t>
   </si>
   <si>
@@ -783,6 +780,9 @@
   </si>
   <si>
     <t>Cargue:</t>
+  </si>
+  <si>
+    <t>Código:</t>
   </si>
 </sst>
 </file>
@@ -1855,248 +1855,248 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="8" fillId="3" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="3" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2385,7 +2385,7 @@
   <dimension ref="B1:P35"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10:C11"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2409,219 +2409,219 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:16" ht="24" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="86"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="96" t="s">
+      <c r="B1" s="118"/>
+      <c r="C1" s="119"/>
+      <c r="D1" s="120"/>
+      <c r="E1" s="128" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="97"/>
-      <c r="I1" s="97"/>
-      <c r="J1" s="97"/>
-      <c r="K1" s="97"/>
-      <c r="L1" s="97"/>
-      <c r="M1" s="97"/>
-      <c r="N1" s="97"/>
-      <c r="O1" s="97"/>
-      <c r="P1" s="98"/>
+      <c r="F1" s="129"/>
+      <c r="G1" s="129"/>
+      <c r="H1" s="129"/>
+      <c r="I1" s="129"/>
+      <c r="J1" s="129"/>
+      <c r="K1" s="129"/>
+      <c r="L1" s="129"/>
+      <c r="M1" s="129"/>
+      <c r="N1" s="129"/>
+      <c r="O1" s="129"/>
+      <c r="P1" s="130"/>
     </row>
     <row r="2" spans="2:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="89"/>
-      <c r="C2" s="90"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="99" t="s">
+      <c r="B2" s="121"/>
+      <c r="C2" s="122"/>
+      <c r="D2" s="123"/>
+      <c r="E2" s="131" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="100"/>
-      <c r="G2" s="100"/>
-      <c r="H2" s="100"/>
-      <c r="I2" s="100"/>
-      <c r="J2" s="100"/>
-      <c r="K2" s="100"/>
-      <c r="L2" s="100"/>
-      <c r="M2" s="100"/>
-      <c r="N2" s="100"/>
-      <c r="O2" s="100"/>
-      <c r="P2" s="101"/>
+      <c r="F2" s="132"/>
+      <c r="G2" s="132"/>
+      <c r="H2" s="132"/>
+      <c r="I2" s="132"/>
+      <c r="J2" s="132"/>
+      <c r="K2" s="132"/>
+      <c r="L2" s="132"/>
+      <c r="M2" s="132"/>
+      <c r="N2" s="132"/>
+      <c r="O2" s="132"/>
+      <c r="P2" s="133"/>
     </row>
     <row r="3" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="89"/>
-      <c r="C3" s="90"/>
-      <c r="D3" s="91"/>
+      <c r="B3" s="121"/>
+      <c r="C3" s="122"/>
+      <c r="D3" s="123"/>
     </row>
     <row r="4" spans="2:16" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B4" s="89"/>
-      <c r="C4" s="90"/>
-      <c r="D4" s="90"/>
+      <c r="B4" s="121"/>
+      <c r="C4" s="122"/>
+      <c r="D4" s="122"/>
       <c r="E4" s="29" t="s">
         <v>15</v>
       </c>
       <c r="F4" s="33"/>
-      <c r="G4" s="94" t="s">
+      <c r="G4" s="126" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="94"/>
-      <c r="I4" s="95"/>
-      <c r="J4" s="95"/>
-      <c r="K4" s="95"/>
-      <c r="L4" s="94" t="s">
+      <c r="H4" s="126"/>
+      <c r="I4" s="127"/>
+      <c r="J4" s="127"/>
+      <c r="K4" s="127"/>
+      <c r="L4" s="126" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="94"/>
-      <c r="N4" s="94"/>
-      <c r="O4" s="102"/>
-      <c r="P4" s="103"/>
+      <c r="M4" s="126"/>
+      <c r="N4" s="126"/>
+      <c r="O4" s="134"/>
+      <c r="P4" s="135"/>
     </row>
     <row r="5" spans="2:16" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B5" s="89"/>
-      <c r="C5" s="90"/>
-      <c r="D5" s="90"/>
+      <c r="B5" s="121"/>
+      <c r="C5" s="122"/>
+      <c r="D5" s="122"/>
       <c r="E5" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="108"/>
-      <c r="G5" s="108"/>
-      <c r="H5" s="108"/>
-      <c r="I5" s="108"/>
-      <c r="J5" s="108"/>
-      <c r="K5" s="108"/>
-      <c r="L5" s="109" t="s">
+      <c r="F5" s="140"/>
+      <c r="G5" s="140"/>
+      <c r="H5" s="140"/>
+      <c r="I5" s="140"/>
+      <c r="J5" s="140"/>
+      <c r="K5" s="140"/>
+      <c r="L5" s="141" t="s">
         <v>21</v>
       </c>
-      <c r="M5" s="109"/>
-      <c r="N5" s="109"/>
-      <c r="O5" s="104"/>
-      <c r="P5" s="105"/>
+      <c r="M5" s="141"/>
+      <c r="N5" s="141"/>
+      <c r="O5" s="136"/>
+      <c r="P5" s="137"/>
     </row>
     <row r="6" spans="2:16" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="B6" s="89"/>
-      <c r="C6" s="90"/>
-      <c r="D6" s="90"/>
+      <c r="B6" s="121"/>
+      <c r="C6" s="122"/>
+      <c r="D6" s="122"/>
       <c r="E6" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="104"/>
-      <c r="G6" s="106"/>
-      <c r="H6" s="106"/>
-      <c r="I6" s="107"/>
-      <c r="J6" s="140" t="s">
+      <c r="F6" s="136"/>
+      <c r="G6" s="138"/>
+      <c r="H6" s="138"/>
+      <c r="I6" s="139"/>
+      <c r="J6" s="74" t="s">
         <v>231</v>
       </c>
-      <c r="K6" s="141"/>
-      <c r="L6" s="141"/>
-      <c r="M6" s="141"/>
-      <c r="N6" s="141"/>
-      <c r="O6" s="141"/>
-      <c r="P6" s="142"/>
+      <c r="K6" s="75"/>
+      <c r="L6" s="75"/>
+      <c r="M6" s="75"/>
+      <c r="N6" s="75"/>
+      <c r="O6" s="75"/>
+      <c r="P6" s="76"/>
     </row>
     <row r="7" spans="2:16" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B7" s="89"/>
-      <c r="C7" s="90"/>
-      <c r="D7" s="90"/>
+      <c r="B7" s="121"/>
+      <c r="C7" s="122"/>
+      <c r="D7" s="122"/>
       <c r="E7" s="31" t="s">
-        <v>236</v>
-      </c>
-      <c r="F7" s="104"/>
-      <c r="G7" s="106"/>
-      <c r="H7" s="106"/>
-      <c r="I7" s="107"/>
-      <c r="J7" s="143" t="s">
+        <v>240</v>
+      </c>
+      <c r="F7" s="136"/>
+      <c r="G7" s="138"/>
+      <c r="H7" s="138"/>
+      <c r="I7" s="139"/>
+      <c r="J7" s="77" t="s">
+        <v>237</v>
+      </c>
+      <c r="K7" s="78"/>
+      <c r="L7" s="78"/>
+      <c r="M7" s="78"/>
+      <c r="N7" s="78"/>
+      <c r="O7" s="78"/>
+      <c r="P7" s="79"/>
+    </row>
+    <row r="8" spans="2:16" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="124"/>
+      <c r="C8" s="125"/>
+      <c r="D8" s="125"/>
+      <c r="E8" s="142" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="143"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="144" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" s="145"/>
+      <c r="J8" s="25" t="s">
         <v>238</v>
       </c>
-      <c r="K7" s="144"/>
-      <c r="L7" s="144"/>
-      <c r="M7" s="144"/>
-      <c r="N7" s="144"/>
-      <c r="O7" s="144"/>
-      <c r="P7" s="145"/>
-    </row>
-    <row r="8" spans="2:16" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="92"/>
-      <c r="C8" s="93"/>
-      <c r="D8" s="93"/>
-      <c r="E8" s="110" t="s">
-        <v>27</v>
-      </c>
-      <c r="F8" s="111"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="112" t="s">
-        <v>28</v>
-      </c>
-      <c r="I8" s="113"/>
-      <c r="J8" s="25" t="s">
+      <c r="K8" s="82"/>
+      <c r="L8" s="146"/>
+      <c r="M8" s="147" t="s">
         <v>239</v>
       </c>
-      <c r="K8" s="114"/>
-      <c r="L8" s="115"/>
-      <c r="M8" s="116" t="s">
-        <v>240</v>
-      </c>
-      <c r="N8" s="117"/>
-      <c r="O8" s="114"/>
-      <c r="P8" s="146"/>
+      <c r="N8" s="148"/>
+      <c r="O8" s="82"/>
+      <c r="P8" s="83"/>
     </row>
     <row r="9" spans="2:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B10" s="118" t="s">
+      <c r="B10" s="112" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="77" t="s">
+      <c r="C10" s="114" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="77" t="s">
+      <c r="D10" s="114" t="s">
         <v>2</v>
       </c>
-      <c r="E10" s="77" t="s">
+      <c r="E10" s="114" t="s">
         <v>3</v>
       </c>
-      <c r="F10" s="77"/>
-      <c r="G10" s="77" t="s">
+      <c r="F10" s="114"/>
+      <c r="G10" s="114" t="s">
         <v>4</v>
       </c>
-      <c r="H10" s="77" t="s">
+      <c r="H10" s="114" t="s">
         <v>5</v>
       </c>
-      <c r="I10" s="84" t="s">
+      <c r="I10" s="149" t="s">
         <v>6</v>
       </c>
-      <c r="J10" s="77" t="s">
+      <c r="J10" s="114" t="s">
         <v>7</v>
       </c>
-      <c r="K10" s="77"/>
-      <c r="L10" s="79" t="s">
+      <c r="K10" s="114"/>
+      <c r="L10" s="152" t="s">
         <v>180</v>
       </c>
-      <c r="M10" s="153" t="s">
+      <c r="M10" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="N10" s="154"/>
-      <c r="O10" s="147" t="s">
+      <c r="N10" s="91"/>
+      <c r="O10" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="P10" s="148"/>
+      <c r="P10" s="85"/>
     </row>
     <row r="11" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="119"/>
-      <c r="C11" s="78"/>
-      <c r="D11" s="78"/>
-      <c r="E11" s="78"/>
-      <c r="F11" s="78"/>
-      <c r="G11" s="78"/>
-      <c r="H11" s="78"/>
-      <c r="I11" s="85"/>
-      <c r="J11" s="78"/>
-      <c r="K11" s="78"/>
-      <c r="L11" s="80"/>
+      <c r="B11" s="113"/>
+      <c r="C11" s="115"/>
+      <c r="D11" s="115"/>
+      <c r="E11" s="115"/>
+      <c r="F11" s="115"/>
+      <c r="G11" s="115"/>
+      <c r="H11" s="115"/>
+      <c r="I11" s="150"/>
+      <c r="J11" s="115"/>
+      <c r="K11" s="115"/>
+      <c r="L11" s="153"/>
       <c r="M11" s="3" t="s">
         <v>11</v>
       </c>
       <c r="N11" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="O11" s="149"/>
-      <c r="P11" s="150"/>
+      <c r="O11" s="86"/>
+      <c r="P11" s="87"/>
     </row>
     <row r="12" spans="2:16" ht="129.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="35">
@@ -2629,18 +2629,18 @@
       </c>
       <c r="C12" s="38"/>
       <c r="D12" s="39"/>
-      <c r="E12" s="76"/>
-      <c r="F12" s="76"/>
+      <c r="E12" s="151"/>
+      <c r="F12" s="151"/>
       <c r="G12" s="39"/>
       <c r="H12" s="38"/>
       <c r="I12" s="40"/>
-      <c r="J12" s="83"/>
-      <c r="K12" s="83"/>
+      <c r="J12" s="154"/>
+      <c r="K12" s="154"/>
       <c r="L12" s="41"/>
       <c r="M12" s="42"/>
       <c r="N12" s="43"/>
-      <c r="O12" s="151"/>
-      <c r="P12" s="152"/>
+      <c r="O12" s="88"/>
+      <c r="P12" s="89"/>
     </row>
     <row r="13" spans="2:16" ht="129.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="36">
@@ -2648,18 +2648,18 @@
       </c>
       <c r="C13" s="39"/>
       <c r="D13" s="39"/>
-      <c r="E13" s="82"/>
-      <c r="F13" s="82"/>
+      <c r="E13" s="116"/>
+      <c r="F13" s="116"/>
       <c r="G13" s="39"/>
       <c r="H13" s="39"/>
       <c r="I13" s="44"/>
-      <c r="J13" s="81"/>
-      <c r="K13" s="81"/>
+      <c r="J13" s="117"/>
+      <c r="K13" s="117"/>
       <c r="L13" s="41"/>
       <c r="M13" s="45"/>
       <c r="N13" s="46"/>
-      <c r="O13" s="74"/>
-      <c r="P13" s="75"/>
+      <c r="O13" s="80"/>
+      <c r="P13" s="81"/>
     </row>
     <row r="14" spans="2:16" ht="129.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="36">
@@ -2667,18 +2667,18 @@
       </c>
       <c r="C14" s="39"/>
       <c r="D14" s="39"/>
-      <c r="E14" s="82"/>
-      <c r="F14" s="82"/>
+      <c r="E14" s="116"/>
+      <c r="F14" s="116"/>
       <c r="G14" s="39"/>
       <c r="H14" s="39"/>
       <c r="I14" s="44"/>
-      <c r="J14" s="81"/>
-      <c r="K14" s="81"/>
+      <c r="J14" s="117"/>
+      <c r="K14" s="117"/>
       <c r="L14" s="41"/>
       <c r="M14" s="45"/>
       <c r="N14" s="46"/>
-      <c r="O14" s="74"/>
-      <c r="P14" s="75"/>
+      <c r="O14" s="80"/>
+      <c r="P14" s="81"/>
     </row>
     <row r="15" spans="2:16" ht="129.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="36">
@@ -2686,18 +2686,18 @@
       </c>
       <c r="C15" s="39"/>
       <c r="D15" s="39"/>
-      <c r="E15" s="82"/>
-      <c r="F15" s="82"/>
+      <c r="E15" s="116"/>
+      <c r="F15" s="116"/>
       <c r="G15" s="39"/>
       <c r="H15" s="39"/>
       <c r="I15" s="44"/>
-      <c r="J15" s="81"/>
-      <c r="K15" s="81"/>
+      <c r="J15" s="117"/>
+      <c r="K15" s="117"/>
       <c r="L15" s="41"/>
       <c r="M15" s="45"/>
       <c r="N15" s="46"/>
-      <c r="O15" s="74"/>
-      <c r="P15" s="75"/>
+      <c r="O15" s="80"/>
+      <c r="P15" s="81"/>
     </row>
     <row r="16" spans="2:16" ht="129.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="36">
@@ -2705,18 +2705,18 @@
       </c>
       <c r="C16" s="39"/>
       <c r="D16" s="39"/>
-      <c r="E16" s="82"/>
-      <c r="F16" s="82"/>
+      <c r="E16" s="116"/>
+      <c r="F16" s="116"/>
       <c r="G16" s="39"/>
       <c r="H16" s="39"/>
       <c r="I16" s="44"/>
-      <c r="J16" s="81"/>
-      <c r="K16" s="81"/>
+      <c r="J16" s="117"/>
+      <c r="K16" s="117"/>
       <c r="L16" s="41"/>
       <c r="M16" s="45"/>
       <c r="N16" s="46"/>
-      <c r="O16" s="74"/>
-      <c r="P16" s="75"/>
+      <c r="O16" s="80"/>
+      <c r="P16" s="81"/>
     </row>
     <row r="17" spans="2:16" ht="129.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="36">
@@ -2724,18 +2724,18 @@
       </c>
       <c r="C17" s="39"/>
       <c r="D17" s="39"/>
-      <c r="E17" s="82"/>
-      <c r="F17" s="82"/>
+      <c r="E17" s="116"/>
+      <c r="F17" s="116"/>
       <c r="G17" s="39"/>
       <c r="H17" s="39"/>
       <c r="I17" s="44"/>
-      <c r="J17" s="81"/>
-      <c r="K17" s="81"/>
+      <c r="J17" s="117"/>
+      <c r="K17" s="117"/>
       <c r="L17" s="41"/>
       <c r="M17" s="45"/>
       <c r="N17" s="46"/>
-      <c r="O17" s="74"/>
-      <c r="P17" s="75"/>
+      <c r="O17" s="80"/>
+      <c r="P17" s="81"/>
     </row>
     <row r="18" spans="2:16" ht="129.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="36">
@@ -2743,18 +2743,18 @@
       </c>
       <c r="C18" s="39"/>
       <c r="D18" s="39"/>
-      <c r="E18" s="82"/>
-      <c r="F18" s="82"/>
+      <c r="E18" s="116"/>
+      <c r="F18" s="116"/>
       <c r="G18" s="39"/>
       <c r="H18" s="39"/>
       <c r="I18" s="44"/>
-      <c r="J18" s="81"/>
-      <c r="K18" s="81"/>
+      <c r="J18" s="117"/>
+      <c r="K18" s="117"/>
       <c r="L18" s="41"/>
       <c r="M18" s="45"/>
       <c r="N18" s="46"/>
-      <c r="O18" s="74"/>
-      <c r="P18" s="75"/>
+      <c r="O18" s="80"/>
+      <c r="P18" s="81"/>
     </row>
     <row r="19" spans="2:16" ht="129.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="36">
@@ -2762,18 +2762,18 @@
       </c>
       <c r="C19" s="39"/>
       <c r="D19" s="39"/>
-      <c r="E19" s="82"/>
-      <c r="F19" s="82"/>
+      <c r="E19" s="116"/>
+      <c r="F19" s="116"/>
       <c r="G19" s="39"/>
       <c r="H19" s="39"/>
       <c r="I19" s="44"/>
-      <c r="J19" s="81"/>
-      <c r="K19" s="81"/>
+      <c r="J19" s="117"/>
+      <c r="K19" s="117"/>
       <c r="L19" s="41"/>
       <c r="M19" s="45"/>
       <c r="N19" s="46"/>
-      <c r="O19" s="74"/>
-      <c r="P19" s="75"/>
+      <c r="O19" s="80"/>
+      <c r="P19" s="81"/>
     </row>
     <row r="20" spans="2:16" ht="129.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="36">
@@ -2781,18 +2781,18 @@
       </c>
       <c r="C20" s="39"/>
       <c r="D20" s="39"/>
-      <c r="E20" s="82"/>
-      <c r="F20" s="82"/>
+      <c r="E20" s="116"/>
+      <c r="F20" s="116"/>
       <c r="G20" s="39"/>
       <c r="H20" s="39"/>
       <c r="I20" s="44"/>
-      <c r="J20" s="81"/>
-      <c r="K20" s="81"/>
+      <c r="J20" s="117"/>
+      <c r="K20" s="117"/>
       <c r="L20" s="41"/>
       <c r="M20" s="45"/>
       <c r="N20" s="46"/>
-      <c r="O20" s="74"/>
-      <c r="P20" s="75"/>
+      <c r="O20" s="80"/>
+      <c r="P20" s="81"/>
     </row>
     <row r="21" spans="2:16" ht="129.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="36">
@@ -2800,18 +2800,18 @@
       </c>
       <c r="C21" s="39"/>
       <c r="D21" s="39"/>
-      <c r="E21" s="82"/>
-      <c r="F21" s="82"/>
+      <c r="E21" s="116"/>
+      <c r="F21" s="116"/>
       <c r="G21" s="39"/>
       <c r="H21" s="39"/>
       <c r="I21" s="44"/>
-      <c r="J21" s="81"/>
-      <c r="K21" s="81"/>
+      <c r="J21" s="117"/>
+      <c r="K21" s="117"/>
       <c r="L21" s="41"/>
       <c r="M21" s="45"/>
       <c r="N21" s="46"/>
-      <c r="O21" s="74"/>
-      <c r="P21" s="75"/>
+      <c r="O21" s="80"/>
+      <c r="P21" s="81"/>
     </row>
     <row r="22" spans="2:16" ht="129.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="36">
@@ -2819,18 +2819,18 @@
       </c>
       <c r="C22" s="39"/>
       <c r="D22" s="39"/>
-      <c r="E22" s="82"/>
-      <c r="F22" s="82"/>
+      <c r="E22" s="116"/>
+      <c r="F22" s="116"/>
       <c r="G22" s="39"/>
       <c r="H22" s="39"/>
       <c r="I22" s="44"/>
-      <c r="J22" s="81"/>
-      <c r="K22" s="81"/>
+      <c r="J22" s="117"/>
+      <c r="K22" s="117"/>
       <c r="L22" s="41"/>
       <c r="M22" s="45"/>
       <c r="N22" s="46"/>
-      <c r="O22" s="74"/>
-      <c r="P22" s="75"/>
+      <c r="O22" s="80"/>
+      <c r="P22" s="81"/>
     </row>
     <row r="23" spans="2:16" ht="129.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="36">
@@ -2838,18 +2838,18 @@
       </c>
       <c r="C23" s="39"/>
       <c r="D23" s="39"/>
-      <c r="E23" s="82"/>
-      <c r="F23" s="82"/>
+      <c r="E23" s="116"/>
+      <c r="F23" s="116"/>
       <c r="G23" s="39"/>
       <c r="H23" s="39"/>
       <c r="I23" s="44"/>
-      <c r="J23" s="81"/>
-      <c r="K23" s="81"/>
+      <c r="J23" s="117"/>
+      <c r="K23" s="117"/>
       <c r="L23" s="41"/>
       <c r="M23" s="45"/>
       <c r="N23" s="46"/>
-      <c r="O23" s="74"/>
-      <c r="P23" s="75"/>
+      <c r="O23" s="80"/>
+      <c r="P23" s="81"/>
     </row>
     <row r="24" spans="2:16" ht="129.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="36">
@@ -2857,18 +2857,18 @@
       </c>
       <c r="C24" s="39"/>
       <c r="D24" s="39"/>
-      <c r="E24" s="82"/>
-      <c r="F24" s="82"/>
+      <c r="E24" s="116"/>
+      <c r="F24" s="116"/>
       <c r="G24" s="39"/>
       <c r="H24" s="39"/>
       <c r="I24" s="44"/>
-      <c r="J24" s="81"/>
-      <c r="K24" s="81"/>
+      <c r="J24" s="117"/>
+      <c r="K24" s="117"/>
       <c r="L24" s="41"/>
       <c r="M24" s="45"/>
       <c r="N24" s="46"/>
-      <c r="O24" s="74"/>
-      <c r="P24" s="75"/>
+      <c r="O24" s="80"/>
+      <c r="P24" s="81"/>
     </row>
     <row r="25" spans="2:16" ht="129.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="36">
@@ -2876,18 +2876,18 @@
       </c>
       <c r="C25" s="39"/>
       <c r="D25" s="39"/>
-      <c r="E25" s="82"/>
-      <c r="F25" s="82"/>
+      <c r="E25" s="116"/>
+      <c r="F25" s="116"/>
       <c r="G25" s="39"/>
       <c r="H25" s="39"/>
       <c r="I25" s="44"/>
-      <c r="J25" s="81"/>
-      <c r="K25" s="81"/>
+      <c r="J25" s="117"/>
+      <c r="K25" s="117"/>
       <c r="L25" s="41"/>
       <c r="M25" s="45"/>
       <c r="N25" s="46"/>
-      <c r="O25" s="74"/>
-      <c r="P25" s="75"/>
+      <c r="O25" s="80"/>
+      <c r="P25" s="81"/>
     </row>
     <row r="26" spans="2:16" ht="129.94999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="37">
@@ -2895,26 +2895,26 @@
       </c>
       <c r="C26" s="49"/>
       <c r="D26" s="49"/>
-      <c r="E26" s="121"/>
-      <c r="F26" s="121"/>
+      <c r="E26" s="93"/>
+      <c r="F26" s="93"/>
       <c r="G26" s="49"/>
       <c r="H26" s="49"/>
       <c r="I26" s="50"/>
-      <c r="J26" s="122"/>
-      <c r="K26" s="122"/>
+      <c r="J26" s="94"/>
+      <c r="K26" s="94"/>
       <c r="L26" s="51"/>
       <c r="M26" s="47"/>
       <c r="N26" s="48"/>
-      <c r="O26" s="133"/>
-      <c r="P26" s="134"/>
+      <c r="O26" s="105"/>
+      <c r="P26" s="106"/>
     </row>
     <row r="27" spans="2:16" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="H27" s="135" t="s">
+      <c r="H27" s="107" t="s">
         <v>22</v>
       </c>
-      <c r="I27" s="136"/>
-      <c r="J27" s="136"/>
-      <c r="K27" s="136"/>
+      <c r="I27" s="108"/>
+      <c r="J27" s="108"/>
+      <c r="K27" s="108"/>
       <c r="L27" s="26">
         <f>SUM(L12:L26)</f>
         <v>0</v>
@@ -2928,13 +2928,13 @@
       <c r="L28" s="4"/>
     </row>
     <row r="29" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="120" t="s">
+      <c r="B29" s="92" t="s">
         <v>23</v>
       </c>
-      <c r="C29" s="120"/>
-      <c r="D29" s="120"/>
-      <c r="E29" s="120"/>
-      <c r="F29" s="120"/>
+      <c r="C29" s="92"/>
+      <c r="D29" s="92"/>
+      <c r="E29" s="92"/>
+      <c r="F29" s="92"/>
       <c r="H29" s="28"/>
       <c r="I29" s="28"/>
       <c r="J29" s="28"/>
@@ -2959,12 +2959,12 @@
       <c r="J30" s="57"/>
       <c r="K30" s="57"/>
       <c r="L30" s="58"/>
-      <c r="M30" s="125" t="s">
+      <c r="M30" s="97" t="s">
         <v>230</v>
       </c>
-      <c r="N30" s="126"/>
-      <c r="O30" s="126"/>
-      <c r="P30" s="131" t="s">
+      <c r="N30" s="98"/>
+      <c r="O30" s="98"/>
+      <c r="P30" s="103" t="s">
         <v>235</v>
       </c>
     </row>
@@ -2980,10 +2980,10 @@
       <c r="J31" s="64"/>
       <c r="K31" s="64"/>
       <c r="L31" s="65"/>
-      <c r="M31" s="127"/>
-      <c r="N31" s="128"/>
-      <c r="O31" s="128"/>
-      <c r="P31" s="132"/>
+      <c r="M31" s="99"/>
+      <c r="N31" s="100"/>
+      <c r="O31" s="100"/>
+      <c r="P31" s="104"/>
     </row>
     <row r="32" spans="2:16" ht="21" x14ac:dyDescent="0.35">
       <c r="B32" s="59"/>
@@ -2997,10 +2997,10 @@
       <c r="J32" s="64"/>
       <c r="K32" s="64"/>
       <c r="L32" s="65"/>
-      <c r="M32" s="127"/>
-      <c r="N32" s="128"/>
-      <c r="O32" s="128"/>
-      <c r="P32" s="132"/>
+      <c r="M32" s="99"/>
+      <c r="N32" s="100"/>
+      <c r="O32" s="100"/>
+      <c r="P32" s="104"/>
     </row>
     <row r="33" spans="2:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B33" s="59"/>
@@ -3014,37 +3014,37 @@
       <c r="J33" s="64"/>
       <c r="K33" s="64"/>
       <c r="L33" s="65"/>
-      <c r="M33" s="127" t="s">
+      <c r="M33" s="99" t="s">
         <v>233</v>
       </c>
-      <c r="N33" s="128"/>
-      <c r="O33" s="128"/>
-      <c r="P33" s="123" t="s">
+      <c r="N33" s="100"/>
+      <c r="O33" s="100"/>
+      <c r="P33" s="95" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="34" spans="2:16" ht="21" x14ac:dyDescent="0.35">
-      <c r="B34" s="137" t="s">
+      <c r="B34" s="109" t="s">
         <v>234</v>
       </c>
-      <c r="C34" s="138"/>
-      <c r="D34" s="138"/>
-      <c r="E34" s="139"/>
-      <c r="F34" s="137" t="s">
+      <c r="C34" s="110"/>
+      <c r="D34" s="110"/>
+      <c r="E34" s="111"/>
+      <c r="F34" s="109" t="s">
         <v>234</v>
       </c>
-      <c r="G34" s="138"/>
-      <c r="H34" s="138"/>
-      <c r="I34" s="137" t="s">
-        <v>237</v>
-      </c>
-      <c r="J34" s="138"/>
-      <c r="K34" s="138"/>
-      <c r="L34" s="139"/>
-      <c r="M34" s="127"/>
-      <c r="N34" s="128"/>
-      <c r="O34" s="128"/>
-      <c r="P34" s="123"/>
+      <c r="G34" s="110"/>
+      <c r="H34" s="110"/>
+      <c r="I34" s="109" t="s">
+        <v>236</v>
+      </c>
+      <c r="J34" s="110"/>
+      <c r="K34" s="110"/>
+      <c r="L34" s="111"/>
+      <c r="M34" s="99"/>
+      <c r="N34" s="100"/>
+      <c r="O34" s="100"/>
+      <c r="P34" s="95"/>
     </row>
     <row r="35" spans="2:16" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B35" s="68"/>
@@ -3058,10 +3058,10 @@
       <c r="J35" s="72"/>
       <c r="K35" s="72"/>
       <c r="L35" s="73"/>
-      <c r="M35" s="129"/>
-      <c r="N35" s="130"/>
-      <c r="O35" s="130"/>
-      <c r="P35" s="124"/>
+      <c r="M35" s="101"/>
+      <c r="N35" s="102"/>
+      <c r="O35" s="102"/>
+      <c r="P35" s="96"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" selectUnlockedCells="1"/>
@@ -3072,6 +3072,74 @@
     <protectedRange sqref="J7:O7" name="Rango1_1"/>
   </protectedRanges>
   <mergeCells count="84">
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="J10:K11"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="B1:D8"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="E1:P1"/>
+    <mergeCell ref="E2:P2"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="L4:N4"/>
+    <mergeCell ref="F5:K5"/>
+    <mergeCell ref="L5:N5"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="B29:F29"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="P33:P35"/>
+    <mergeCell ref="M30:O32"/>
+    <mergeCell ref="M33:O35"/>
+    <mergeCell ref="P30:P32"/>
+    <mergeCell ref="O26:P26"/>
+    <mergeCell ref="H27:K27"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="F34:H34"/>
+    <mergeCell ref="I34:L34"/>
     <mergeCell ref="J6:P6"/>
     <mergeCell ref="J7:P7"/>
     <mergeCell ref="O25:P25"/>
@@ -3088,74 +3156,6 @@
     <mergeCell ref="O14:P14"/>
     <mergeCell ref="O15:P15"/>
     <mergeCell ref="O16:P16"/>
-    <mergeCell ref="B29:F29"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="P33:P35"/>
-    <mergeCell ref="M30:O32"/>
-    <mergeCell ref="M33:O35"/>
-    <mergeCell ref="P30:P32"/>
-    <mergeCell ref="O26:P26"/>
-    <mergeCell ref="H27:K27"/>
-    <mergeCell ref="B34:E34"/>
-    <mergeCell ref="F34:H34"/>
-    <mergeCell ref="I34:L34"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:F11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="B1:D8"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="E1:P1"/>
-    <mergeCell ref="E2:P2"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="L4:N4"/>
-    <mergeCell ref="F5:K5"/>
-    <mergeCell ref="L5:N5"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="J10:K11"/>
-    <mergeCell ref="L10:L11"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="J13:K13"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:K4" xr:uid="{00000000-0002-0000-0000-000000000000}">
